--- a/finalProjFront/public/展示匯入車位資料.xlsx
+++ b/finalProjFront/public/展示匯入車位資料.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>車位編號</t>
   </si>
@@ -82,13 +82,16 @@
     <t>B3-004</t>
   </si>
   <si>
+    <t>機車</t>
+  </si>
+  <si>
     <t>A棟-6F-10</t>
   </si>
   <si>
     <t>溫柏翰</t>
   </si>
   <si>
-    <t>TWN-2458</t>
+    <t>EWT-9580</t>
   </si>
   <si>
     <t>B3-005</t>
@@ -97,9 +100,6 @@
     <t>B3 B區</t>
   </si>
   <si>
-    <t>機車</t>
-  </si>
-  <si>
     <t>A棟-6F-12</t>
   </si>
   <si>
@@ -136,13 +136,16 @@
     <t>B3-008</t>
   </si>
   <si>
+    <t>電動車</t>
+  </si>
+  <si>
     <t>A棟-8F-10</t>
   </si>
   <si>
     <t>林承恩</t>
   </si>
   <si>
-    <t>BN-2063</t>
+    <t>EJN-4025</t>
   </si>
   <si>
     <t>B3-009</t>
@@ -151,9 +154,6 @@
     <t>B3 C區</t>
   </si>
   <si>
-    <t>電動車</t>
-  </si>
-  <si>
     <t>A棟-8F-12</t>
   </si>
   <si>
@@ -178,37 +178,19 @@
     <t>B3-011</t>
   </si>
   <si>
-    <t>A棟-9F-12</t>
-  </si>
-  <si>
-    <t>葉子晴</t>
-  </si>
-  <si>
-    <t>EJN-4025</t>
+    <t>殘障車位</t>
+  </si>
+  <si>
+    <t>王保全</t>
   </si>
   <si>
     <t>B3-012</t>
   </si>
   <si>
-    <t>A棟-10F-10</t>
-  </si>
-  <si>
-    <t>簡承哲</t>
-  </si>
-  <si>
-    <t>EWT-9580</t>
-  </si>
-  <si>
     <t>B3-013</t>
   </si>
   <si>
     <t>B3 D區</t>
-  </si>
-  <si>
-    <t>殘障車位</t>
-  </si>
-  <si>
-    <t>王保全</t>
   </si>
   <si>
     <t>B3-014</t>
@@ -589,16 +571,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -606,13 +588,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>29</v>
@@ -632,10 +614,10 @@
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>33</v>
@@ -655,10 +637,10 @@
         <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>37</v>
@@ -678,19 +660,19 @@
         <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -698,13 +680,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>47</v>
@@ -724,10 +706,10 @@
         <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>51</v>
@@ -747,42 +729,30 @@
         <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
@@ -790,16 +760,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
@@ -807,16 +777,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
@@ -824,16 +794,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
@@ -841,16 +811,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -858,70 +828,70 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
